--- a/class_diagram/after/repository/面談予約システム_クラス図 (repository).xlsx
+++ b/class_diagram/after/repository/面談予約システム_クラス図 (repository).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628B36F5-1EEB-4990-A327-45A3B2BB5DAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4366B25A-FE03-4B6B-9D66-F7383FFC307F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UsersRepository" sheetId="1" r:id="rId1"/>
-    <sheet name="TimesRepository" sheetId="2" r:id="rId2"/>
+    <sheet name="ReservationPastsRepository" sheetId="4" r:id="rId1"/>
+    <sheet name="ReservationsRepository" sheetId="3" r:id="rId2"/>
+    <sheet name="TimesRepository" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,39 +37,14 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>--r 返り値のデータ型</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> フィールド</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> メソッド</t>
-    <phoneticPr fontId="2"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,39 +54,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF91A5C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,13 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -159,23 +104,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形: 角を丸くする 9">
+        <xdr:cNvPr id="2" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0B8E4D-FFA0-4C13-AC21-A97F3E86409B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26B09A2-9C00-4E92-9DA8-697DC3F1A7A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -183,8 +128,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077075" y="2733675"/>
-          <a:ext cx="7581900" cy="3533775"/>
+          <a:off x="1590675" y="1714500"/>
+          <a:ext cx="9772650" cy="10039350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -196,7 +141,7 @@
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -210,19 +155,23 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>UsersRepository</a:t>
+            <a:t>ReservationsPastsRepository</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -231,26 +180,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 7">
+        <xdr:cNvPr id="3" name="四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CB05A9-72F4-4FC7-987D-7049D996FD44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C822BAEB-A722-4F61-B727-0286B234137F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9063633C-D615-88C4-F1F0-C1C0D6BCA564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -258,8 +207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7210424" y="3876675"/>
-          <a:ext cx="2657475" cy="723900"/>
+          <a:off x="2238375" y="3228975"/>
+          <a:ext cx="2886075" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -285,145 +234,33 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>findById(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> id : int)</a:t>
+            <a:t>findByUserId( userId : int)</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Optional&lt;User&gt;</a:t>
+            <a:t>--r List&lt;ReservationPast&gt;</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -431,26 +268,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 7">
+        <xdr:cNvPr id="5" name="四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB7D057-F234-42A9-8C8A-3D69BBC39BA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4CDE0C-DF6C-41C7-9AAF-059B6F0D4AC0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9063633C-D615-88C4-F1F0-C1C0D6BCA564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -458,8 +295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10296524" y="3838575"/>
-          <a:ext cx="2657475" cy="723900"/>
+          <a:off x="2266950" y="4419600"/>
+          <a:ext cx="4638675" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -485,145 +322,114 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>findByEmail(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> email : String )</a:t>
+            <a:t>findByInterviewerId( interviewerId : int)</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Optional&lt;User&gt;</a:t>
+            <a:t>--r List&lt;ReservationPast&gt;</a:t>
           </a:r>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D345C1-7284-41FE-8322-391C3554FAC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="1714500"/>
+          <a:ext cx="9772650" cy="10039350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationsRepository</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -631,26 +437,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形 7">
+        <xdr:cNvPr id="3" name="四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1D4AD3-81F4-4B3C-8657-D86AFE955778}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9A201B-4661-40D3-BB22-10C6206AC22C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9063633C-D615-88C4-F1F0-C1C0D6BCA564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -658,8 +464,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7067549" y="4600575"/>
-          <a:ext cx="2596515" cy="1038225"/>
+          <a:off x="2238375" y="3228975"/>
+          <a:ext cx="2886075" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -685,145 +491,33 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>existsByEmail(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> email : String )</a:t>
+            <a:t>findByUserId( userId : int)</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Boolean</a:t>
+            <a:t>--r List&lt;Reservation&gt;</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -831,26 +525,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="四角形 7">
+        <xdr:cNvPr id="4" name="四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581FC6E5-5897-4063-B5EB-CF51F03706AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3F8A72-4863-49D1-9345-5846C0AF690F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{499DC2E6-D9FB-7E86-6765-6254A76A8BFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -858,8 +552,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10296524" y="4791075"/>
-          <a:ext cx="3143251" cy="723900"/>
+          <a:off x="2209800" y="5591175"/>
+          <a:ext cx="5200650" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -984,46 +678,126 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>existsByUserName(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> email : String )</a:t>
+            <a:t>findByInterviewerName( interviewerName : String )</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Boolean</a:t>
+            <a:t>--r List&lt;Reservation&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AA2CB2-907B-4AD9-ACAF-7905F5B33565}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9063633C-D615-88C4-F1F0-C1C0D6BCA564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="4419600"/>
+          <a:ext cx="4638675" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>findByInterviewerId( interviewerId : int)</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r List&lt;Reservation&gt;</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1032,7 +806,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1429,41 +1203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F20:I105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9AFBFA-47C0-41E5-93DC-C9FE1918D4E6}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="H20" s="3"/>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
-      <c r="F105" s="5"/>
-      <c r="G105" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1471,16 +1220,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64FAC17-F9F8-494D-999D-DA4B810CDBC2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BBEFB5-4788-43B2-9194-6294F6FBC4A4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/class_diagram/after/repository/面談予約システム_クラス図 (repository).xlsx
+++ b/class_diagram/after/repository/面談予約システム_クラス図 (repository).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4366B25A-FE03-4B6B-9D66-F7383FFC307F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4366B25A-FE03-4B6B-9D66-F7383FFC307F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8425C73F-BDEE-4ACF-8483-C116C7660E37}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReservationPastsRepository" sheetId="4" r:id="rId1"/>
@@ -27,10 +27,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,7 +456,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9A201B-4661-40D3-BB22-10C6206AC22C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9063633C-D615-88C4-F1F0-C1C0D6BCA564}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{34D345C1-7284-41FE-8322-391C3554FAC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,199 +504,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>findByUserId( userId : int)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r List&lt;Reservation&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3F8A72-4863-49D1-9345-5846C0AF690F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{499DC2E6-D9FB-7E86-6765-6254A76A8BFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2209800" y="5591175"/>
-          <a:ext cx="5200650" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>findByInterviewerName( interviewerName : String )</a:t>
+            <a:t>findByUserId( userId : Integer)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -736,7 +544,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AA2CB2-907B-4AD9-ACAF-7905F5B33565}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9063633C-D615-88C4-F1F0-C1C0D6BCA564}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0A3F8A72-4863-49D1-9345-5846C0AF690F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -784,7 +592,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>findByInterviewerId( interviewerId : int)</a:t>
+            <a:t>findByInterviewerId( interviewerId : Integer)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1210,7 +1018,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1223,11 +1031,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64FAC17-F9F8-494D-999D-DA4B810CDBC2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1240,11 +1048,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BBEFB5-4788-43B2-9194-6294F6FBC4A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/class_diagram/after/repository/面談予約システム_クラス図 (repository).xlsx
+++ b/class_diagram/after/repository/面談予約システム_クラス図 (repository).xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29622"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4366B25A-FE03-4B6B-9D66-F7383FFC307F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8425C73F-BDEE-4ACF-8483-C116C7660E37}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{4366B25A-FE03-4B6B-9D66-F7383FFC307F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{420B232E-F711-4585-BA3E-346D212FCD8B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReservationPastsRepository" sheetId="4" r:id="rId1"/>
     <sheet name="ReservationsRepository" sheetId="3" r:id="rId2"/>
     <sheet name="TimesRepository" sheetId="2" r:id="rId3"/>
+    <sheet name="UsersRepository" sheetId="5" r:id="rId4"/>
+    <sheet name="InterviewersRepository" sheetId="6" r:id="rId5"/>
+    <sheet name="ManagersRepository" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,9 +40,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+  <si>
+    <t>--r 返り値のデータ型</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> メソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +73,48 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF91A5C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,8 +129,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -686,6 +745,1760 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>TimesRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08A5AD5-927E-40C5-A25A-0F7E86614068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="2733675"/>
+          <a:ext cx="7581900" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE258DD-960D-44E4-A347-337BF548A77C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F08A5AD5-927E-40C5-A25A-0F7E86614068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296524" y="3838575"/>
+          <a:ext cx="2657475" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>findByEmail(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> email : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Optional&lt;User&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E807C96-D1DF-48F2-83C5-0318F57003F8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9FE258DD-960D-44E4-A347-337BF548A77C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219949" y="4791075"/>
+          <a:ext cx="2657475" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>existsByEmail(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> email : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Boolean</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE902237-980A-48CD-AB11-0CC705453D08}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3E807C96-D1DF-48F2-83C5-0318F57003F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="3714750"/>
+          <a:ext cx="2914650" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>existsByName( name : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Boolean</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFC5838-4314-D489-6F19-A959A263FCA2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4E54B34A-752F-4D91-8487-8ADCF67D5624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="2828925"/>
+          <a:ext cx="6772275" cy="3609975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="91A5C4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>InterviewersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5638F3-A029-427E-BA74-BCF2F0C5FA8A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4E54B34A-752F-4D91-8487-8ADCF67D5624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219949" y="4791075"/>
+          <a:ext cx="2657475" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>existsByEmail(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> email : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Boolean</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BCCF1C-39BE-4499-98D9-068E0E636BAE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3A5638F3-A029-427E-BA74-BCF2F0C5FA8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="3714750"/>
+          <a:ext cx="2914650" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>existsByName( name : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Boolean</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2342C895-B9F9-4BE5-B775-57B9976BDDFC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D0BCCF1C-39BE-4499-98D9-068E0E636BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410825" y="4248150"/>
+          <a:ext cx="2914650" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>findByEmail( email : String ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Optional&lt;Interviewer&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD5FBD4-3848-4C26-B6D6-DB0A151FB547}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4E54B34A-752F-4D91-8487-8ADCF67D5624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="2828925"/>
+          <a:ext cx="6772275" cy="3609975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="91A5C4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ManagersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6C35D2-DCE4-41D4-919A-75E4C8D8FE1A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2AD5FBD4-3848-4C26-B6D6-DB0A151FB547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410825" y="4248150"/>
+          <a:ext cx="2914650" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>findByEmail( email : String ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Optional&lt;Manager&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1031,7 +2844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64FAC17-F9F8-494D-999D-DA4B810CDBC2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="K2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1048,7 +2861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BBEFB5-4788-43B2-9194-6294F6FBC4A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
@@ -1058,4 +2871,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C39E8B8-4BA0-49BF-AF32-86A1633BD07B}">
+  <dimension ref="F20:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="2"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="3"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="24">
+      <c r="F105" s="4"/>
+      <c r="G105" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A12A19-9CBF-4F24-B3A5-8765C93826FB}">
+  <dimension ref="F20:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="2"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="3"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="24">
+      <c r="F105" s="4"/>
+      <c r="G105" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464101C1-C12A-4D65-A72E-683696A0C475}">
+  <dimension ref="F20:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="2"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="3"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="24">
+      <c r="F105" s="4"/>
+      <c r="G105" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/class_diagram/after/repository/面談予約システム_クラス図 (repository).xlsx
+++ b/class_diagram/after/repository/面談予約システム_クラス図 (repository).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29622"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{4366B25A-FE03-4B6B-9D66-F7383FFC307F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{420B232E-F711-4585-BA3E-346D212FCD8B}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{4366B25A-FE03-4B6B-9D66-F7383FFC307F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A4327A-D110-4DAC-8306-818E0C96B106}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReservationPastsRepository" sheetId="4" r:id="rId1"/>
@@ -652,6 +652,185 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>findByInterviewerId( interviewerId : Integer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r List&lt;Reservation&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7331B597-E556-4888-B5E1-C5220586CB1E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B2AA2CB2-907B-4AD9-ACAF-7905F5B33565}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="5534025"/>
+          <a:ext cx="4638675" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>findByInterviewerName( interviewerName : String)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2844,8 +3023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64FAC17-F9F8-494D-999D-DA4B810CDBC2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2959,7 +3138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464101C1-C12A-4D65-A72E-683696A0C475}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
